--- a/user&score.xlsx
+++ b/user&score.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="A4:C4"/>
@@ -404,6 +404,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s"/>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
